--- a/daschland_ontology/metadata (Metadata)/resources.xlsx
+++ b/daschland_ontology/metadata (Metadata)/resources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/daschland_ontology/metadata (Metadata)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6117222A-ECAF-7641-9AF9-3A767ACBFC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFB4C14-454A-5A40-B5BE-BCCCFA029806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="53060" windowHeight="24240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,18 +172,101 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>======
-ID#AAAA48CmwS0
-Johannes Nussbaum    (2023-08-29 13:44:30)
-mandatory
-Indicates how often the property may occur. The possible values are: 
- - 1: exactly once (mandatory one value and only one)
- - 0-1: The value may be omitted, but can occur only once.
- - 1-n: At least one value must be present, but multiple values may be present.
- - 0-n: The value may be omitted, but may also occur multiple times.</t>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">======
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ID#AAAA48CmwS0
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Johannes Nussbaum    (2023-08-29 13:44:30)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">mandatory
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Indicates how often the property may occur. The possible values are: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - 1: exactly once (mandatory one value and only one)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - 0-1: The value may be omitted, but can occur only once.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - 1-n: At least one value must be present, but multiple values may be present.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> - 0-n: The value may be omitted, but may also occur multiple times.</t>
         </r>
       </text>
     </comment>
@@ -319,7 +402,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>name</t>
   </si>
@@ -447,19 +530,16 @@
     <t>hasFileSize</t>
   </si>
   <si>
-    <t>hasCopyright</t>
-  </si>
-  <si>
-    <t>hasLicenseList</t>
-  </si>
-  <si>
-    <t>hasAuthorship</t>
-  </si>
-  <si>
     <t>1-n</t>
   </si>
   <si>
     <t>hasAuthorshipResource</t>
+  </si>
+  <si>
+    <t>hasCopyrightResource</t>
+  </si>
+  <si>
+    <t>hasLicenseResource</t>
   </si>
 </sst>
 </file>
@@ -1959,12 +2039,12 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="198" zoomScaleNormal="198" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2035,7 +2115,7 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
@@ -2046,7 +2126,7 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
@@ -2057,10 +2137,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -2081,7 +2161,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2157,7 +2237,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
@@ -2168,7 +2248,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
@@ -2179,10 +2259,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>3</v>

--- a/daschland_ontology/metadata (Metadata)/resources.xlsx
+++ b/daschland_ontology/metadata (Metadata)/resources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/daschland_ontology/metadata (Metadata)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFB4C14-454A-5A40-B5BE-BCCCFA029806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEBD8BA-A497-1F45-996A-4A28F546CFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="53060" windowHeight="24240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="53060" windowHeight="24240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="classes" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>name</t>
   </si>
@@ -540,13 +540,16 @@
   </si>
   <si>
     <t>hasLicenseResource</t>
+  </si>
+  <si>
+    <t>default_permissions_overrule</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -595,6 +598,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10.199999999999999"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -616,7 +626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -640,6 +650,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -903,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z979"/>
   <sheetViews>
-    <sheetView zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="157" zoomScaleNormal="157" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -961,7 +972,9 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3"/>
+      <c r="M1" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -2038,8 +2051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="198" zoomScaleNormal="198" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScale="198" zoomScaleNormal="198" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/daschland_ontology/metadata (Metadata)/resources.xlsx
+++ b/daschland_ontology/metadata (Metadata)/resources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/daschland_ontology/metadata (Metadata)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFB4C14-454A-5A40-B5BE-BCCCFA029806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51CB357-718B-114D-BD44-B8956E32B6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="53060" windowHeight="24240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">classes!$A$1:$L$3</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -402,7 +402,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>name</t>
   </si>
@@ -540,13 +540,16 @@
   </si>
   <si>
     <t>hasLicenseResource</t>
+  </si>
+  <si>
+    <t>default_permissions_overrule</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -595,6 +598,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10.199999999999999"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -616,7 +626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -640,6 +650,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2036,10 +2047,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="198" zoomScaleNormal="198" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2047,7 +2058,7 @@
     <col min="1" max="1" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -2057,8 +2068,11 @@
       <c r="C1" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="D1" s="11" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>35</v>
       </c>
@@ -2069,7 +2083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>36</v>
       </c>
@@ -2080,7 +2094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>38</v>
       </c>
@@ -2091,7 +2105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>40</v>
       </c>
@@ -2102,7 +2116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
@@ -2113,7 +2127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>44</v>
       </c>
@@ -2124,7 +2138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>45</v>
       </c>
@@ -2135,7 +2149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>43</v>
       </c>
